--- a/tests/dust_data/testf.xlsx
+++ b/tests/dust_data/testf.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="126">
   <si>
     <t>section1</t>
   </si>
@@ -269,13 +269,13 @@
     <t>cbrn</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
     <t>red</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>white</t>
@@ -491,7 +491,9 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
@@ -582,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>92</v>
@@ -682,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
@@ -754,7 +756,9 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12"/>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
@@ -835,9 +839,7 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
+      <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -846,9 +848,7 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" t="s">
-        <v>87</v>
-      </c>
+      <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
@@ -865,16 +865,12 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
+      <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17" t="s">
-        <v>87</v>
-      </c>
+      <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -1037,7 +1033,7 @@
         <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
         <v>108</v>
@@ -1076,11 +1072,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25"/>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -1099,15 +1097,9 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -1240,7 +1232,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -1337,30 +1329,26 @@
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
+      <c r="C35"/>
       <c r="D35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35" t="s">
-        <v>87</v>
-      </c>
+      <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
+      <c r="J35" t="s">
+        <v>85</v>
+      </c>
       <c r="K35"/>
-      <c r="L35" t="s">
-        <v>87</v>
-      </c>
+      <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="P35"/>
+      <c r="P35" t="s">
+        <v>85</v>
+      </c>
       <c r="Q35"/>
       <c r="R35"/>
     </row>
@@ -1488,9 +1476,7 @@
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41" t="s">
-        <v>87</v>
-      </c>
+      <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
@@ -1650,7 +1636,7 @@
         <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
         <v>98</v>

--- a/tests/dust_data/testf.xlsx
+++ b/tests/dust_data/testf.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
   <si>
     <t>section1</t>
   </si>
@@ -756,9 +756,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" t="s">
-        <v>85</v>
-      </c>
+      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
@@ -848,7 +846,9 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16"/>
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
@@ -1071,14 +1071,10 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
+      <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
+      <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -1298,7 +1294,9 @@
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
-      <c r="P33"/>
+      <c r="P33" t="s">
+        <v>85</v>
+      </c>
       <c r="Q33"/>
       <c r="R33"/>
     </row>
@@ -1330,17 +1328,13 @@
         <v>37</v>
       </c>
       <c r="C35"/>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
+      <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" t="s">
-        <v>85</v>
-      </c>
+      <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -1539,7 +1533,9 @@
       <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C44"/>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
@@ -1561,7 +1557,9 @@
       <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C45"/>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
@@ -1667,7 +1665,9 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49"/>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -1711,7 +1711,9 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51"/>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -1733,7 +1735,9 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52"/>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
@@ -1755,7 +1759,9 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53"/>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
@@ -1777,7 +1783,9 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
@@ -1937,7 +1945,9 @@
       <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="C61"/>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -1959,7 +1969,9 @@
       <c r="B62" t="s">
         <v>61</v>
       </c>
-      <c r="C62"/>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
@@ -1981,7 +1993,9 @@
       <c r="B63" t="s">
         <v>62</v>
       </c>
-      <c r="C63"/>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
